--- a/requirements/MOSIP_Roles and Responsibility_Matrix_05Oct18.xlsx
+++ b/requirements/MOSIP_Roles and Responsibility_Matrix_05Oct18.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP - Roles and Privileges" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D64" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D73" authorId="0" shapeId="0">
+    <comment ref="D81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="154">
   <si>
     <t xml:space="preserve">MOSIP Products
 </t>
@@ -475,9 +475,6 @@
     <t>Document upload</t>
   </si>
   <si>
-    <t>Biometrics capture</t>
-  </si>
-  <si>
     <t>Operator authentication</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>On-board User</t>
   </si>
   <si>
-    <t>Provide biometrics for local storage</t>
-  </si>
-  <si>
     <t>Registration Processor</t>
   </si>
   <si>
@@ -701,12 +695,39 @@
   </si>
   <si>
     <t>Key manager Service</t>
+  </si>
+  <si>
+    <t>Provide fingerprints for local storage</t>
+  </si>
+  <si>
+    <t>Mark operator's exceptions</t>
+  </si>
+  <si>
+    <t>Provide irises for local storage</t>
+  </si>
+  <si>
+    <t>Provide face and exception photo for local storage</t>
+  </si>
+  <si>
+    <t>Mark biometric exceptions</t>
+  </si>
+  <si>
+    <t>Fingerprint capture</t>
+  </si>
+  <si>
+    <t>Iris capture</t>
+  </si>
+  <si>
+    <t>Face and exception photo capture</t>
+  </si>
+  <si>
+    <t>Preview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1393,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1737,6 +1758,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1768,75 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2120,68 +2147,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KV85"/>
+  <dimension ref="A1:KV93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="M49" sqref="M49:N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="66.26953125" style="23" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="15.7265625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="9" customWidth="1"/>
-    <col min="15" max="18" width="15.7265625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" style="9"/>
-    <col min="20" max="20" width="16.54296875" style="9" customWidth="1"/>
-    <col min="21" max="35" width="15.7265625" style="9" customWidth="1"/>
-    <col min="36" max="36" width="9.26953125" style="9"/>
-    <col min="37" max="46" width="15.7265625" style="9" customWidth="1"/>
-    <col min="47" max="16384" width="9.26953125" style="9"/>
+    <col min="1" max="1" width="22.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="66.21875" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="15.77734375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" style="9" customWidth="1"/>
+    <col min="15" max="18" width="15.77734375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" style="9"/>
+    <col min="20" max="20" width="16.5546875" style="9" customWidth="1"/>
+    <col min="21" max="35" width="15.77734375" style="9" customWidth="1"/>
+    <col min="36" max="36" width="9.21875" style="9"/>
+    <col min="37" max="46" width="15.77734375" style="9" customWidth="1"/>
+    <col min="47" max="16384" width="9.21875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:308" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:308" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="131" t="s">
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="132"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="24"/>
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
@@ -2255,13 +2282,13 @@
       <c r="CJ1" s="21"/>
       <c r="CK1" s="21"/>
     </row>
-    <row r="2" spans="1:308" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="140"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="144"/>
+    <row r="2" spans="1:308" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="131"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="48" t="s">
         <v>8</v>
       </c>
@@ -2368,15 +2395,15 @@
       <c r="CJ2" s="21"/>
       <c r="CK2" s="21"/>
     </row>
-    <row r="3" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="118" t="s">
-        <v>135</v>
+      <c r="B3" s="143" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="98"/>
@@ -2485,11 +2512,11 @@
       <c r="CJ3" s="20"/>
       <c r="CK3" s="20"/>
     </row>
-    <row r="4" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="128"/>
-      <c r="B4" s="119"/>
+    <row r="4" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="119"/>
+      <c r="B4" s="144"/>
       <c r="C4" s="76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="99"/>
@@ -2598,10 +2625,10 @@
       <c r="CJ4" s="20"/>
       <c r="CK4" s="20"/>
     </row>
-    <row r="5" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="128"/>
+    <row r="5" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="119"/>
       <c r="B5" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2699,10 +2726,10 @@
       <c r="CJ5" s="20"/>
       <c r="CK5" s="20"/>
     </row>
-    <row r="6" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="128"/>
+    <row r="6" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="119"/>
       <c r="B6" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2792,13 +2819,13 @@
       <c r="CJ6" s="20"/>
       <c r="CK6" s="20"/>
     </row>
-    <row r="7" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="128"/>
-      <c r="B7" s="119" t="s">
-        <v>140</v>
+    <row r="7" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="119"/>
+      <c r="B7" s="144" t="s">
+        <v>138</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="99"/>
@@ -2893,11 +2920,11 @@
       <c r="CJ7" s="20"/>
       <c r="CK7" s="20"/>
     </row>
-    <row r="8" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="128"/>
-      <c r="B8" s="119"/>
+    <row r="8" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="119"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="99"/>
@@ -2992,11 +3019,11 @@
       <c r="CJ8" s="20"/>
       <c r="CK8" s="20"/>
     </row>
-    <row r="9" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="128"/>
-      <c r="B9" s="119"/>
+    <row r="9" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="119"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="99"/>
@@ -3091,10 +3118,10 @@
       <c r="CJ9" s="20"/>
       <c r="CK9" s="20"/>
     </row>
-    <row r="10" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="128"/>
+    <row r="10" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119"/>
       <c r="B10" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="12"/>
@@ -3190,10 +3217,10 @@
       <c r="CJ10" s="20"/>
       <c r="CK10" s="20"/>
     </row>
-    <row r="11" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="128"/>
+    <row r="11" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="119"/>
       <c r="B11" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3285,10 +3312,10 @@
       <c r="CJ11" s="20"/>
       <c r="CK11" s="20"/>
     </row>
-    <row r="12" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="148"/>
+    <row r="12" spans="1:308" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="139"/>
       <c r="B12" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -3380,8 +3407,8 @@
       <c r="CJ12" s="20"/>
       <c r="CK12" s="20"/>
     </row>
-    <row r="13" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133" t="s">
+    <row r="13" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="124" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -3481,8 +3508,8 @@
       <c r="CJ13" s="20"/>
       <c r="CK13" s="20"/>
     </row>
-    <row r="14" spans="1:308" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="134"/>
+    <row r="14" spans="1:308" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
       <c r="B14" s="67"/>
       <c r="C14" s="3" t="s">
         <v>24</v>
@@ -3795,8 +3822,8 @@
       <c r="KU14" s="12"/>
       <c r="KV14" s="12"/>
     </row>
-    <row r="15" spans="1:308" x14ac:dyDescent="0.35">
-      <c r="A15" s="134"/>
+    <row r="15" spans="1:308" x14ac:dyDescent="0.3">
+      <c r="A15" s="125"/>
       <c r="B15" s="67" t="s">
         <v>25</v>
       </c>
@@ -3856,8 +3883,8 @@
       <c r="BW15" s="10"/>
       <c r="BX15" s="10"/>
     </row>
-    <row r="16" spans="1:308" x14ac:dyDescent="0.35">
-      <c r="A16" s="134"/>
+    <row r="16" spans="1:308" x14ac:dyDescent="0.3">
+      <c r="A16" s="125"/>
       <c r="B16" s="67" t="s">
         <v>26</v>
       </c>
@@ -3915,8 +3942,8 @@
       <c r="BW16" s="10"/>
       <c r="BX16" s="10"/>
     </row>
-    <row r="17" spans="1:76" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="141"/>
+    <row r="17" spans="1:76" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="132"/>
       <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
@@ -3972,18 +3999,18 @@
       <c r="BW17" s="10"/>
       <c r="BX17" s="10"/>
     </row>
-    <row r="18" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133" t="s">
+    <row r="18" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="145" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="147" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="83" t="s">
@@ -4061,12 +4088,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="134"/>
+    <row r="19" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="125"/>
       <c r="B19" s="67"/>
-      <c r="C19" s="121"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="123"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="84" t="s">
         <v>33</v>
       </c>
@@ -4118,12 +4145,12 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
     </row>
-    <row r="20" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="134"/>
+    <row r="20" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="125"/>
       <c r="B20" s="67"/>
-      <c r="C20" s="121"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="123"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="84" t="s">
         <v>34</v>
       </c>
@@ -4177,12 +4204,12 @@
       <c r="BW20" s="10"/>
       <c r="BX20" s="10"/>
     </row>
-    <row r="21" spans="1:76" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="134"/>
+    <row r="21" spans="1:76" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="125"/>
       <c r="B21" s="67"/>
-      <c r="C21" s="121"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="123"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="85" t="s">
         <v>35</v>
       </c>
@@ -4236,10 +4263,10 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="10"/>
     </row>
-    <row r="22" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="134"/>
+    <row r="22" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="125"/>
       <c r="B22" s="67"/>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="12"/>
@@ -4297,10 +4324,10 @@
       <c r="BW22" s="10"/>
       <c r="BX22" s="10"/>
     </row>
-    <row r="23" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="134"/>
+    <row r="23" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="125"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="121"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="12"/>
       <c r="E23" s="99"/>
       <c r="F23" s="84" t="s">
@@ -4356,10 +4383,10 @@
       <c r="BW23" s="10"/>
       <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="134"/>
+    <row r="24" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="125"/>
       <c r="B24" s="67"/>
-      <c r="C24" s="121"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="12"/>
       <c r="E24" s="99"/>
       <c r="F24" s="84" t="s">
@@ -4415,10 +4442,10 @@
       <c r="BW24" s="10"/>
       <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="134"/>
+    <row r="25" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="125"/>
       <c r="B25" s="67"/>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="146" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="12"/>
@@ -4476,10 +4503,10 @@
       <c r="BW25" s="10"/>
       <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="134"/>
+    <row r="26" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="125"/>
       <c r="B26" s="67"/>
-      <c r="C26" s="121"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="12"/>
       <c r="E26" s="99"/>
       <c r="F26" s="84" t="s">
@@ -4535,10 +4562,10 @@
       <c r="BW26" s="10"/>
       <c r="BX26" s="10"/>
     </row>
-    <row r="27" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="134"/>
+    <row r="27" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="125"/>
       <c r="B27" s="67"/>
-      <c r="C27" s="121"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="12"/>
       <c r="E27" s="99"/>
       <c r="F27" s="84" t="s">
@@ -4594,10 +4621,10 @@
       <c r="BW27" s="10"/>
       <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="134"/>
+    <row r="28" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="125"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="121"/>
+      <c r="C28" s="146"/>
       <c r="D28" s="12"/>
       <c r="E28" s="99"/>
       <c r="F28" s="84" t="s">
@@ -4653,10 +4680,10 @@
       <c r="BW28" s="10"/>
       <c r="BX28" s="10"/>
     </row>
-    <row r="29" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="134"/>
+    <row r="29" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="125"/>
       <c r="B29" s="67"/>
-      <c r="C29" s="121"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="12"/>
       <c r="E29" s="99"/>
       <c r="F29" s="84" t="s">
@@ -4712,10 +4739,10 @@
       <c r="BW29" s="10"/>
       <c r="BX29" s="10"/>
     </row>
-    <row r="30" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="134"/>
+    <row r="30" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="125"/>
       <c r="B30" s="67"/>
-      <c r="C30" s="121"/>
+      <c r="C30" s="146"/>
       <c r="D30" s="12"/>
       <c r="E30" s="99"/>
       <c r="F30" s="84" t="s">
@@ -4771,10 +4798,10 @@
       <c r="BW30" s="10"/>
       <c r="BX30" s="10"/>
     </row>
-    <row r="31" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="135"/>
+    <row r="31" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="126"/>
       <c r="B31" s="67"/>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="146" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="12"/>
@@ -4833,10 +4860,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="135"/>
+    <row r="32" spans="1:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="126"/>
       <c r="B32" s="67"/>
-      <c r="C32" s="121"/>
+      <c r="C32" s="146"/>
       <c r="D32" s="12"/>
       <c r="E32" s="99"/>
       <c r="F32" s="87" t="s">
@@ -4883,8 +4910,8 @@
       <c r="AS32" s="1"/>
       <c r="AT32" s="6"/>
     </row>
-    <row r="33" spans="1:46" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="135"/>
+    <row r="33" spans="1:46" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="126"/>
       <c r="B33" s="67"/>
       <c r="C33" s="22" t="s">
         <v>50</v>
@@ -4935,8 +4962,8 @@
       <c r="AS33" s="1"/>
       <c r="AT33" s="6"/>
     </row>
-    <row r="34" spans="1:46" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="135"/>
+    <row r="34" spans="1:46" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="126"/>
       <c r="B34" s="67"/>
       <c r="C34" s="22" t="s">
         <v>52</v>
@@ -4987,10 +5014,10 @@
       <c r="AS34" s="1"/>
       <c r="AT34" s="6"/>
     </row>
-    <row r="35" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="135"/>
+    <row r="35" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="126"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="146" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="12"/>
@@ -5039,10 +5066,10 @@
       <c r="AS35" s="1"/>
       <c r="AT35" s="6"/>
     </row>
-    <row r="36" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="135"/>
+    <row r="36" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="126"/>
       <c r="B36" s="67"/>
-      <c r="C36" s="121"/>
+      <c r="C36" s="146"/>
       <c r="D36" s="12"/>
       <c r="E36" s="99"/>
       <c r="F36" s="88" t="s">
@@ -5089,10 +5116,10 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="6"/>
     </row>
-    <row r="37" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="135"/>
+    <row r="37" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="126"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="121"/>
+      <c r="C37" s="146"/>
       <c r="D37" s="12"/>
       <c r="E37" s="99"/>
       <c r="F37" s="89" t="s">
@@ -5139,8 +5166,8 @@
       <c r="AS37" s="1"/>
       <c r="AT37" s="6"/>
     </row>
-    <row r="38" spans="1:46" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="135"/>
+    <row r="38" spans="1:46" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="126"/>
       <c r="B38" s="67"/>
       <c r="C38" s="22" t="s">
         <v>58</v>
@@ -5189,10 +5216,10 @@
       <c r="AS38" s="1"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="135"/>
+    <row r="39" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="126"/>
       <c r="B39" s="67"/>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="149" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="12"/>
@@ -5243,10 +5270,10 @@
       <c r="AS39" s="1"/>
       <c r="AT39" s="6"/>
     </row>
-    <row r="40" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="136"/>
+    <row r="40" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="127"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="125"/>
+      <c r="C40" s="150"/>
       <c r="D40" s="30"/>
       <c r="E40" s="114"/>
       <c r="F40" s="90" t="s">
@@ -5302,8 +5329,8 @@
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
     </row>
-    <row r="41" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="133" t="s">
+    <row r="41" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="124" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -5315,7 +5342,7 @@
       <c r="D41" s="28"/>
       <c r="E41" s="98"/>
       <c r="F41" s="91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
@@ -5366,8 +5393,8 @@
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
     </row>
-    <row r="42" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="135" t="s">
+    <row r="42" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="126" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="67"/>
@@ -5377,7 +5404,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="99"/>
       <c r="F42" s="80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -5424,8 +5451,8 @@
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A43" s="135"/>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A43" s="126"/>
       <c r="B43" s="67" t="s">
         <v>68</v>
       </c>
@@ -5435,7 +5462,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="99"/>
       <c r="F43" s="89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
@@ -5482,8 +5509,8 @@
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A44" s="135"/>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A44" s="126"/>
       <c r="B44" s="67"/>
       <c r="C44" s="3" t="s">
         <v>70</v>
@@ -5491,7 +5518,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="99"/>
       <c r="F44" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -5538,16 +5565,16 @@
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
     </row>
-    <row r="45" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="135"/>
+    <row r="45" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="126"/>
       <c r="B45" s="67"/>
       <c r="C45" s="3" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="99"/>
       <c r="F45" s="89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
@@ -5594,17 +5621,15 @@
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A46" s="135"/>
-      <c r="B46" s="67"/>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A46" s="126"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="3" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="89" t="s">
-        <v>124</v>
-      </c>
+      <c r="E46" s="116"/>
+      <c r="F46" s="89"/>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
       <c r="I46" s="5" t="s">
@@ -5650,17 +5675,15 @@
       <c r="AS46" s="1"/>
       <c r="AT46" s="1"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A47" s="135"/>
-      <c r="B47" s="67"/>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A47" s="126"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="89" t="s">
-        <v>124</v>
-      </c>
+      <c r="E47" s="116"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
       <c r="I47" s="5" t="s">
@@ -5668,7 +5691,9 @@
       </c>
       <c r="J47" s="53"/>
       <c r="K47" s="53"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="M47" s="5" t="s">
         <v>23</v>
       </c>
@@ -5704,17 +5729,15 @@
       <c r="AS47" s="1"/>
       <c r="AT47" s="1"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A48" s="135"/>
-      <c r="B48" s="67"/>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A48" s="126"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="3" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="89" t="s">
-        <v>125</v>
-      </c>
+      <c r="E48" s="116"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
       <c r="I48" s="5" t="s">
@@ -5760,17 +5783,15 @@
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A49" s="135"/>
-      <c r="B49" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A49" s="126"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D49" s="12"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="89" t="s">
-        <v>126</v>
-      </c>
+      <c r="E49" s="116"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
       <c r="I49" s="5" t="s">
@@ -5778,13 +5799,13 @@
       </c>
       <c r="J49" s="53"/>
       <c r="K49" s="53"/>
-      <c r="L49" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="57"/>
+      <c r="N49" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="O49" s="54"/>
       <c r="P49" s="54"/>
       <c r="Q49" s="54"/>
@@ -5816,18 +5837,16 @@
       <c r="AS49" s="1"/>
       <c r="AT49" s="1"/>
     </row>
-    <row r="50" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="135"/>
-      <c r="B50" s="67" t="s">
-        <v>76</v>
-      </c>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A50" s="126"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="99"/>
       <c r="F50" s="89" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
@@ -5836,7 +5855,9 @@
       </c>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
-      <c r="L50" s="55"/>
+      <c r="L50" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="M50" s="5" t="s">
         <v>23</v>
       </c>
@@ -5872,16 +5893,16 @@
       <c r="AS50" s="1"/>
       <c r="AT50" s="1"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A51" s="135"/>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A51" s="126"/>
       <c r="B51" s="67"/>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="99"/>
       <c r="F51" s="89" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
@@ -5890,7 +5911,7 @@
       </c>
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
-      <c r="L51" s="55"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
         <v>23</v>
       </c>
@@ -5926,16 +5947,16 @@
       <c r="AS51" s="1"/>
       <c r="AT51" s="1"/>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A52" s="135"/>
-      <c r="B52" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="3"/>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A52" s="126"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D52" s="12"/>
       <c r="E52" s="99"/>
       <c r="F52" s="89" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
@@ -5982,16 +6003,16 @@
       <c r="AS52" s="1"/>
       <c r="AT52" s="1"/>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A53" s="135"/>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A53" s="126"/>
       <c r="B53" s="67" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="12"/>
       <c r="E53" s="99"/>
       <c r="F53" s="89" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -6038,27 +6059,27 @@
       <c r="AS53" s="1"/>
       <c r="AT53" s="1"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A54" s="135"/>
+    <row r="54" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="126"/>
       <c r="B54" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="99"/>
-      <c r="F54" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="64"/>
+      <c r="F54" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="53"/>
       <c r="H54" s="53"/>
       <c r="I54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
-      <c r="L54" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L54" s="55"/>
       <c r="M54" s="5" t="s">
         <v>23</v>
       </c>
@@ -6094,29 +6115,25 @@
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
     </row>
-    <row r="55" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="135"/>
-      <c r="B55" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" s="64"/>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A55" s="126"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="53"/>
       <c r="H55" s="53"/>
       <c r="I55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J55" s="53"/>
       <c r="K55" s="53"/>
-      <c r="L55" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L55" s="55"/>
       <c r="M55" s="5" t="s">
         <v>23</v>
       </c>
@@ -6152,35 +6169,35 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="109"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O56" s="6"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="33"/>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A56" s="126"/>
+      <c r="B56" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="57"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="32"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -6197,44 +6214,46 @@
       <c r="AG56" s="8"/>
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
-      <c r="AO56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP56" s="1"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="5"/>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="116"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="33"/>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A57" s="126"/>
+      <c r="B57" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="57"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="32"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -6251,42 +6270,46 @@
       <c r="AG57" s="8"/>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="6"/>
-      <c r="AP57" s="1"/>
+      <c r="AP57" s="5"/>
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="116"/>
-      <c r="B58" s="146"/>
-      <c r="C58" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="74"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="33"/>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A58" s="126"/>
+      <c r="B58" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="64"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="57"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="32"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
@@ -6303,42 +6326,46 @@
       <c r="AG58" s="8"/>
       <c r="AH58" s="8"/>
       <c r="AI58" s="8"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="6"/>
-      <c r="AP58" s="1"/>
+      <c r="AP58" s="5"/>
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="117"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O59" s="6"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="33"/>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A59" s="126"/>
+      <c r="B59" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="57"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="32"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
@@ -6355,518 +6382,954 @@
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="6"/>
-      <c r="AP59" s="1"/>
+      <c r="AP59" s="5"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="126" t="s">
+    <row r="60" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="126"/>
+      <c r="B60" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="57"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="32"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A61" s="126"/>
+      <c r="B61" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="57"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="32"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="6"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+    </row>
+    <row r="62" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="126"/>
+      <c r="B62" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="57"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="32"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+    </row>
+    <row r="63" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="126"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="64"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="57"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="32"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+    </row>
+    <row r="64" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="109"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" s="6"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="33"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+    </row>
+    <row r="65" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="141"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="74"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="33"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+    </row>
+    <row r="66" spans="1:46" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="141"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="74"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="33"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+    </row>
+    <row r="67" spans="1:46" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="142"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="112"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="33"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A68" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="105" t="s">
+      <c r="D68" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="98"/>
-      <c r="F60" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="25"/>
-    </row>
-    <row r="61" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="127"/>
-      <c r="B61" s="101"/>
-      <c r="D61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="99"/>
-      <c r="F61" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="25"/>
-    </row>
-    <row r="62" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="101"/>
-      <c r="D62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="99"/>
-      <c r="F62" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="25"/>
-    </row>
-    <row r="63" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="128"/>
-      <c r="B63" s="101"/>
-      <c r="D63" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="99"/>
-      <c r="F63" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="25"/>
-    </row>
-    <row r="64" spans="1:46" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="128"/>
-      <c r="B64" s="101"/>
-      <c r="D64" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="99"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="25"/>
-    </row>
-    <row r="65" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="128"/>
-      <c r="B65" s="101"/>
-      <c r="D65" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="99"/>
-      <c r="F65" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="25"/>
-    </row>
-    <row r="66" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="128"/>
-      <c r="B66" s="101"/>
-      <c r="D66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="99"/>
-      <c r="F66" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="25"/>
-    </row>
-    <row r="67" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="128"/>
-      <c r="B67" s="101"/>
-      <c r="D67" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="99"/>
-      <c r="F67" s="95"/>
-      <c r="Q67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="25"/>
-    </row>
-    <row r="68" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="128"/>
-      <c r="B68" s="101"/>
-      <c r="D68" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="99"/>
+      <c r="E68" s="98"/>
       <c r="F68" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="58" t="s">
         <v>23</v>
       </c>
       <c r="R68" s="25"/>
     </row>
-    <row r="69" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="128"/>
+    <row r="69" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="118"/>
       <c r="B69" s="101"/>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E69" s="99"/>
       <c r="F69" s="94" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
       <c r="Q69" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R69" s="25"/>
     </row>
-    <row r="70" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="129"/>
+    <row r="70" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="119" t="s">
+        <v>97</v>
+      </c>
       <c r="B70" s="101"/>
-      <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="102"/>
+        <v>98</v>
+      </c>
+      <c r="E70" s="99"/>
       <c r="F70" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="129"/>
-      <c r="B71" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="R70" s="25"/>
+    </row>
+    <row r="71" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="119"/>
+      <c r="B71" s="101"/>
       <c r="D71" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="102"/>
+        <v>99</v>
+      </c>
+      <c r="E71" s="99"/>
       <c r="F71" s="94" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
       <c r="Q71" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="129"/>
+      <c r="R71" s="25"/>
+    </row>
+    <row r="72" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="119"/>
       <c r="B72" s="101"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="102"/>
-      <c r="F72" s="94" t="s">
-        <v>133</v>
-      </c>
+      <c r="D72" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="99"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
       <c r="Q72" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="129"/>
+      <c r="R72" s="25"/>
+    </row>
+    <row r="73" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="119"/>
       <c r="B73" s="101"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="102"/>
-      <c r="F73" s="96"/>
+      <c r="D73" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="99"/>
+      <c r="F73" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
       <c r="Q73" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="129"/>
+      <c r="R73" s="25"/>
+    </row>
+    <row r="74" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="119"/>
       <c r="B74" s="101"/>
       <c r="D74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="102"/>
+        <v>102</v>
+      </c>
+      <c r="E74" s="99"/>
       <c r="F74" s="94" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
       <c r="Q74" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="129"/>
+      <c r="R74" s="25"/>
+    </row>
+    <row r="75" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="119"/>
       <c r="B75" s="101"/>
-      <c r="D75" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="102"/>
-      <c r="F75" s="94" t="s">
-        <v>133</v>
-      </c>
+      <c r="D75" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="99"/>
+      <c r="F75" s="95"/>
       <c r="Q75" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="129"/>
+      <c r="R75" s="25"/>
+    </row>
+    <row r="76" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="119"/>
       <c r="B76" s="101"/>
       <c r="D76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="102"/>
+        <v>104</v>
+      </c>
+      <c r="E76" s="99"/>
       <c r="F76" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q76" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="129"/>
+      <c r="R76" s="25"/>
+    </row>
+    <row r="77" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="119"/>
       <c r="B77" s="101"/>
-      <c r="C77" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="102"/>
+        <v>105</v>
+      </c>
+      <c r="E77" s="99"/>
       <c r="F77" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q77" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="129"/>
+      <c r="R77" s="25"/>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A78" s="120"/>
       <c r="B78" s="101"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E78" s="102"/>
       <c r="F78" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q78" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="129"/>
-      <c r="B79" s="101"/>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A79" s="120"/>
+      <c r="B79" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D79" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E79" s="102"/>
       <c r="F79" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q79" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="129"/>
-      <c r="B80" s="101" t="s">
-        <v>114</v>
+    <row r="80" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="120"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E80" s="102"/>
       <c r="F80" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q80" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="31" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="129"/>
-      <c r="B81" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+    <row r="81" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="120"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="65" t="s">
+        <v>103</v>
+      </c>
       <c r="E81" s="102"/>
-      <c r="F81" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="26" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="129"/>
-      <c r="B82" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="F81" s="96"/>
+      <c r="Q81" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="120"/>
+      <c r="B82" s="101"/>
+      <c r="D82" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E82" s="102"/>
       <c r="F82" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="51"/>
-      <c r="Q82" s="55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="129"/>
-      <c r="B83" s="101" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="120"/>
+      <c r="B83" s="101"/>
+      <c r="D83" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E83" s="102"/>
       <c r="F83" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="130"/>
-      <c r="B84" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="104"/>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="120"/>
+      <c r="B84" s="101"/>
+      <c r="D84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="102"/>
       <c r="F84" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="26"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="75"/>
+        <v>131</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="120"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="102"/>
+      <c r="F85" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="120"/>
+      <c r="B86" s="101"/>
+      <c r="D86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="102"/>
+      <c r="F86" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="120"/>
+      <c r="B87" s="101"/>
+      <c r="D87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="102"/>
+      <c r="F87" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="120"/>
+      <c r="B88" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="102"/>
+      <c r="F88" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="120"/>
+      <c r="B89" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="26" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="120"/>
+      <c r="B90" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="120"/>
+      <c r="B91" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="102"/>
+      <c r="F91" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="121"/>
+      <c r="B92" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="104"/>
+      <c r="F92" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="26"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A60:A84"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A68:A92"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A18:A40"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A41:A63"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F56:F59" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment"/>
+    <hyperlink ref="F64:F67" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment"/>
     <hyperlink ref="F18" r:id="rId2" location="271-login-api"/>
     <hyperlink ref="F19" r:id="rId3" location="272-login-otp-validation-api"/>
     <hyperlink ref="F20" r:id="rId4" location="275-reterive-all-pre-registration-api"/>
@@ -6887,8 +7350,8 @@
     <hyperlink ref="F39" r:id="rId19" location="2715-Data-Sync-Reterive-all-Pre-Registartion-Ids-api"/>
     <hyperlink ref="F40" r:id="rId20" location="2716-Data-Sync-Reterive-Pre-Registartion-data-api"/>
     <hyperlink ref="F26" r:id="rId21" location="279-get-document-api"/>
-    <hyperlink ref="F82" r:id="rId22" location="2-otp-request "/>
-    <hyperlink ref="F60" r:id="rId23" location="1-auth-request "/>
+    <hyperlink ref="F90" r:id="rId22" location="2-otp-request "/>
+    <hyperlink ref="F68" r:id="rId23" location="1-auth-request "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
@@ -6897,12 +7360,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7113,35 +7593,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7166,12 +7632,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>